--- a/Energy/Energy saver lamps/energy_saver_lamps_master.xlsx
+++ b/Energy/Energy saver lamps/energy_saver_lamps_master.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="58">
   <si>
     <t>Components</t>
   </si>
@@ -147,9 +147,6 @@
     <t>NO to bulb</t>
   </si>
   <si>
-    <t>Code1</t>
-  </si>
-  <si>
     <t>Light turned on when person passes by</t>
   </si>
   <si>
@@ -171,15 +168,9 @@
     <t>Echo to D8(digital pin on Arduino UNO)</t>
   </si>
   <si>
-    <t>To check the working of the sensor install the library &lt;NewPing&gt; and upload the code attached.</t>
-  </si>
-  <si>
     <t>GND to GND(breadboard)- series connection - connect to a hole in the same metal strip as that of GND connection from Arduino UNO to breadboard</t>
   </si>
   <si>
-    <t>Upload final code</t>
-  </si>
-  <si>
     <t>Ultrasonic sensor(2)</t>
   </si>
   <si>
@@ -187,6 +178,18 @@
   </si>
   <si>
     <t>Fix the ultrasonic sensor on steady structure such as the lamp post/wall</t>
+  </si>
+  <si>
+    <t>To check the working of the sensor install the library &lt;NewPing&gt; and upload code001.</t>
+  </si>
+  <si>
+    <t>Upload code002</t>
+  </si>
+  <si>
+    <t>Code002</t>
+  </si>
+  <si>
+    <t>Code001</t>
   </si>
 </sst>
 </file>
@@ -589,7 +592,7 @@
         <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -613,7 +616,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -698,10 +701,10 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>23</v>
@@ -794,8 +797,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -828,10 +831,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>46</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="90" x14ac:dyDescent="0.25">
@@ -841,7 +844,7 @@
     </row>
     <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="C4" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -851,26 +854,27 @@
     </row>
     <row r="6" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="C6" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C7" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>43</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="D7" s="4"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C8" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D8" s="4"/>
     </row>
-    <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="C9" s="6" t="s">
-        <v>51</v>
+        <v>54</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -941,7 +945,7 @@
         <v>4</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C20" s="8"/>
       <c r="D20" s="4"/>
@@ -951,16 +955,16 @@
         <v>5</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D7" r:id="rId1"/>
-    <hyperlink ref="D21" r:id="rId2"/>
+    <hyperlink ref="D21" r:id="rId1"/>
+    <hyperlink ref="D9" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
